--- a/app/pdf/1.xlsx
+++ b/app/pdf/1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\testPage\app\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B350867-C34C-4123-A47E-60D1D80498D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B345E41-5D82-4B6D-890A-702861C1215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="q二位" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,13 +26,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>地方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adsad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿达 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -502,4 +527,56 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99577512-A6D5-4211-AC5C-2112C147F1CC}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>